--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Spot-Check</t>
+          <t>Battery not installed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Please check the</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Battery not installed</t>
+          <t>AI Spot-Check</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Please check the</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
